--- a/agmo_myfarm/data_file/AGMO_Dataset3_output.xlsx
+++ b/agmo_myfarm/data_file/AGMO_Dataset3_output.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songseung-u/songTest/Cdong_Downsampling/Data/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songseung-u/Downloads/AGMO_Dataset_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054C48AC-0566-BA4A-A22D-2FCEB5504C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DAB338-BD0C-6D46-9CBB-FCC4B0D7CC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28540" windowHeight="16940" xr2:uid="{659E3EE1-D4D3-DF4E-B10D-4E86D1802142}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,10 +85,6 @@
     <t>방향 변위 (deg)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>ㅈ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -133,9 +129,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,7 +453,7 @@
   <dimension ref="A1:M578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -496,9 +495,7 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
